--- a/biology/Botanique/Phoenix_(cépage)/Phoenix_(cépage).xlsx
+++ b/biology/Botanique/Phoenix_(cépage)/Phoenix_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phoenix_(c%C3%A9page)</t>
+          <t>Phoenix_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le phoenix est un cépage de raisins blancs d'origine allemande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phoenix_(c%C3%A9page)</t>
+          <t>Phoenix_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phoenix est une obtention de Gerhardt Alleweldt en croisant Bacchus x Villard blanc dans les installations du Institut für Rebenzüchtung Geilweilerhof à Siebeldingen (Palatinat) en Allemagne. Le cépage fait partie de la liste des classements de cépages pour la production de vin suivant l’Article 20 du règlement (CE) n° 1227/200.
 La superficie planté est de 29 hectares. Le vin blanc est légèrement musqué.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phoenix_(c%C3%A9page)</t>
+          <t>Phoenix_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phoenix est connu sous les noms Zuchtnummer Gf. Ga-49-22 et Geilweilerhof Ga-49-22
 </t>
